--- a/04_設計/非機能要求一覧 .xlsx
+++ b/04_設計/非機能要求一覧 .xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21929"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C69E725-109D-4AB6-8A78-CEDB3C33760D}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CC20185-2EBF-4EC8-8D33-D3F8E926A06C}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7995" yWindow="645" windowWidth="11670" windowHeight="7635" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="非機能要求_例" sheetId="6" r:id="rId1"/>
@@ -435,7 +435,34 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>選択肢は列挙型を使う。</t>
+    <t>選択肢は列挙型を使う。
+コメント追加する。
+クラスを役割で分割する。
+メソッド名、変数名を目的に沿った名前にする。</t>
+    <rPh sb="16" eb="18">
+      <t>ツイカ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>ヤクワリ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>ブンカツ</t>
+    </rPh>
+    <rPh sb="39" eb="40">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="41" eb="44">
+      <t>ヘンスウメイ</t>
+    </rPh>
+    <rPh sb="45" eb="47">
+      <t>モクテキ</t>
+    </rPh>
+    <rPh sb="48" eb="49">
+      <t>ソ</t>
+    </rPh>
+    <rPh sb="51" eb="53">
+      <t>ナマエ</t>
+    </rPh>
     <phoneticPr fontId="3"/>
   </si>
 </sst>
@@ -1823,7 +1850,7 @@
   </sheetPr>
   <dimension ref="B1:F22"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B13" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A16" workbookViewId="0">
       <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
@@ -2413,6 +2440,12 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x0101007C0656FF5EC7EF489D1EE3B2A7A4879D" ma:contentTypeVersion="10" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="c9f6ca54e784802800d293eef09570a9">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="ef71c9de-9867-437c-8375-3a1a59bfe133" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4c51f8709e62defe7f0f38684106f309" ns2:_="">
     <xsd:import namespace="ef71c9de-9867-437c-8375-3a1a59bfe133"/>
@@ -2596,12 +2629,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{318C8FCB-4BA7-4987-A979-F628D7182333}">
   <ds:schemaRefs>
@@ -2611,6 +2638,15 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{404F4775-3C65-4E3B-9A3A-4D66C02FC597}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5302E8A0-16CC-41DD-AA85-B4734B91F1E8}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2626,13 +2662,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{404F4775-3C65-4E3B-9A3A-4D66C02FC597}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>